--- a/Assets/RawData/QuestDataSheet.xlsx
+++ b/Assets/RawData/QuestDataSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27525"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD359898-D4B5-4E33-8C20-83129C03B915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08879051-5F92-4C2E-B005-58A4EF55CFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Assets/RawData/QuestDataSheet.xlsx
+++ b/Assets/RawData/QuestDataSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27525"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08879051-5F92-4C2E-B005-58A4EF55CFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8456F91F-338F-49D5-9A36-BF64D1F49FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,25 +115,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="돋움"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,10 +144,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -497,193 +483,203 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="2">
+      <c r="A2">
         <v>2001</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>1001</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>100</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <v>3000</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="2">
+      <c r="A3">
         <v>2002</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>1001</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3">
         <v>100</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3">
         <v>3000</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="2">
+      <c r="A4">
         <v>2003</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>500000</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <v>5</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
         <v>100</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4">
         <v>3000</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="2">
+      <c r="A5">
         <v>2004</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
         <v>300</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5">
         <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="2">
+      <c r="A6">
         <v>3001</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="2">
+      <c r="A7">
         <v>3002</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="2">
+      <c r="A8">
         <v>3003</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="2">
+      <c r="A9">
         <v>3004</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="2">
+      <c r="A10">
         <v>5003</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Assets/RawData/QuestDataSheet.xlsx
+++ b/Assets/RawData/QuestDataSheet.xlsx
@@ -1,9 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27525"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20408"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8456F91F-338F-49D5-9A36-BF64D1F49FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spike\Downloads\GemChronicle\Assets\RawData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C64580C-1609-4EB9-8D6D-0D8AD58D3B79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>_id</t>
   </si>
@@ -109,18 +103,29 @@
   </si>
   <si>
     <t>NPC들과 친해지기(NPC들과 대화하기)</t>
+  </si>
+  <si>
+    <t>_unlockpotalindex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -480,13 +485,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.625" bestFit="1" customWidth="1"/>
@@ -496,9 +501,12 @@
     <col min="6" max="6" width="7.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.125" customWidth="1"/>
+    <col min="14" max="14" width="35" customWidth="1"/>
+    <col min="15" max="15" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -541,8 +549,11 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2001</v>
       </c>
@@ -567,8 +578,11 @@
       <c r="H2">
         <v>3000</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2002</v>
       </c>
@@ -593,8 +607,11 @@
       <c r="H3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2003</v>
       </c>
@@ -619,8 +636,11 @@
       <c r="H4">
         <v>3000</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2004</v>
       </c>
@@ -642,48 +662,68 @@
       <c r="H5">
         <v>10000</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3001</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3002</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3003</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3004</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5003</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
+      <c r="O10">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/RawData/QuestDataSheet.xlsx
+++ b/Assets/RawData/QuestDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spike\Downloads\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C64580C-1609-4EB9-8D6D-0D8AD58D3B79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB58A4D-F8D1-41A8-B56A-01F5EE5E617B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>_id</t>
   </si>
@@ -488,14 +488,14 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
     <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.25" bestFit="1" customWidth="1"/>
@@ -555,7 +555,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -567,7 +567,7 @@
         <v>15</v>
       </c>
       <c r="E2">
-        <v>1001</v>
+        <v>2000</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -596,7 +596,7 @@
         <v>15</v>
       </c>
       <c r="E3">
-        <v>1001</v>
+        <v>2000</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -653,6 +653,9 @@
       <c r="D5" t="s">
         <v>20</v>
       </c>
+      <c r="E5">
+        <v>500000</v>
+      </c>
       <c r="F5">
         <v>1</v>
       </c>
@@ -668,57 +671,144 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>3001</v>
+        <v>2004</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>500000</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>300</v>
+      </c>
+      <c r="H6">
+        <v>10000</v>
+      </c>
       <c r="O6">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>3002</v>
+        <v>2005</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>500000</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>300</v>
+      </c>
+      <c r="H7">
+        <v>10000</v>
+      </c>
       <c r="O7">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>3003</v>
+        <v>2006</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>500000</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>300</v>
+      </c>
+      <c r="H8">
+        <v>10000</v>
+      </c>
       <c r="O8">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>3004</v>
+        <v>2007</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>500000</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>300</v>
+      </c>
+      <c r="H9">
+        <v>10000</v>
+      </c>
       <c r="O9">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>5003</v>
+        <v>2008</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="O10">
-        <v>9</v>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>500000</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>300</v>
+      </c>
+      <c r="H10">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RawData/QuestDataSheet.xlsx
+++ b/Assets/RawData/QuestDataSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spike\Downloads\GemChronicle\Assets\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB58A4D-F8D1-41A8-B56A-01F5EE5E617B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3EB0BF-C4D7-4638-A279-4426BE15FD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14985" yWindow="1140" windowWidth="21555" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -488,7 +488,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/RawData/QuestDataSheet.xlsx
+++ b/Assets/RawData/QuestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3EB0BF-C4D7-4638-A279-4426BE15FD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1804CC7E-D74F-4733-9B32-881701B1CC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14985" yWindow="1140" windowWidth="21555" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1095" yWindow="2670" windowWidth="21555" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>_id</t>
   </si>
@@ -69,21 +69,12 @@
     <t>_rewardCount_3</t>
   </si>
   <si>
-    <t>NPC 대화</t>
-  </si>
-  <si>
     <t>TalkNpc</t>
   </si>
   <si>
     <t>조작법 배우기</t>
   </si>
   <si>
-    <t>몬스터를 잡자</t>
-  </si>
-  <si>
-    <t>KillMonster</t>
-  </si>
-  <si>
     <t>중간 보스 처치</t>
   </si>
   <si>
@@ -106,6 +97,22 @@
   </si>
   <si>
     <t>_unlockpotalindex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스승의 친구 찾으로 가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇㅇㅇ으로가자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +495,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -550,7 +557,7 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -558,13 +565,13 @@
         <v>2000</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
       </c>
       <c r="E2">
         <v>2000</v>
@@ -593,10 +600,10 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3">
-        <v>2000</v>
+        <v>500000</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -616,19 +623,19 @@
         <v>2002</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>500000</v>
+        <v>3004</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>100</v>
@@ -645,13 +652,13 @@
         <v>2003</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>500000</v>
@@ -674,13 +681,13 @@
         <v>2004</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>500000</v>
@@ -703,13 +710,13 @@
         <v>2005</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>500000</v>
@@ -732,13 +739,13 @@
         <v>2006</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>500000</v>
@@ -761,13 +768,13 @@
         <v>2007</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>500000</v>
@@ -790,13 +797,13 @@
         <v>2008</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>500000</v>

--- a/Assets/RawData/QuestDataSheet.xlsx
+++ b/Assets/RawData/QuestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1804CC7E-D74F-4733-9B32-881701B1CC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73D2CAD-86B4-4720-A06A-303CA72E6C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="2670" windowWidth="21555" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>_id</t>
   </si>
@@ -109,10 +109,6 @@
   </si>
   <si>
     <t>ㅇㅇㅇ으로가자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Move</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,7 +491,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -629,7 +625,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>3004</v>

--- a/Assets/RawData/QuestDataSheet.xlsx
+++ b/Assets/RawData/QuestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73D2CAD-86B4-4720-A06A-303CA72E6C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C543B5-3281-4BBF-969C-E014B0B332B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>_id</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>KillBoss</t>
-  </si>
-  <si>
-    <t>특정 종류 몬스터들 포획</t>
   </si>
   <si>
     <t>젬 모아오기</t>
@@ -100,15 +97,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>미정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스승의 친구 찾으로 가기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㅇㅇㅇ으로가자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간 보스 2 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일기 읽어보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일기를 찾아 읽어보자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,14 +496,14 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.25" bestFit="1" customWidth="1"/>
@@ -553,7 +558,7 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -619,10 +624,10 @@
         <v>2002</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -648,7 +653,7 @@
         <v>2003</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -657,7 +662,7 @@
         <v>17</v>
       </c>
       <c r="E5">
-        <v>500000</v>
+        <v>500001</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -677,16 +682,16 @@
         <v>2004</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6">
-        <v>500000</v>
+        <v>4001</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -706,7 +711,7 @@
         <v>2005</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -735,7 +740,7 @@
         <v>2006</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -764,7 +769,7 @@
         <v>2007</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -793,7 +798,7 @@
         <v>2008</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>

--- a/Assets/RawData/QuestDataSheet.xlsx
+++ b/Assets/RawData/QuestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C543B5-3281-4BBF-969C-E014B0B332B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69F5AB3-E607-4294-8B03-9229E682BE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -496,7 +496,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -691,7 +691,7 @@
         <v>14</v>
       </c>
       <c r="E6">
-        <v>4001</v>
+        <v>3001</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -737,7 +737,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2006</v>
+        <v>3001</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>2007</v>
+        <v>3003</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2008</v>
+        <v>3004</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>

--- a/Assets/RawData/QuestDataSheet.xlsx
+++ b/Assets/RawData/QuestDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69F5AB3-E607-4294-8B03-9229E682BE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E47298-3377-4F19-B58A-1275865099B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,15 +105,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>중간 보스 2 처치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>일기 읽어보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>일기를 찾아 읽어보자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지하감옥으로 향하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +496,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="O10" sqref="A1:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -633,7 +633,7 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>3004</v>
+        <v>500001</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -650,19 +650,19 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2003</v>
+        <v>3004</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>500001</v>
+        <v>3004</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -682,10 +682,10 @@
         <v>2004</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>

--- a/Assets/RawData/QuestDataSheet.xlsx
+++ b/Assets/RawData/QuestDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E47298-3377-4F19-B58A-1275865099B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0284C02B-5F8E-48E3-B6C5-2292462A87C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,7 +496,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="A1:O10"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -633,7 +633,7 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>500001</v>
+        <v>3004</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -662,7 +662,7 @@
         <v>14</v>
       </c>
       <c r="E5">
-        <v>3004</v>
+        <v>500001</v>
       </c>
       <c r="F5">
         <v>1</v>

--- a/Assets/RawData/QuestDataSheet.xlsx
+++ b/Assets/RawData/QuestDataSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spike\Downloads\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E47298-3377-4F19-B58A-1275865099B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF291BD-EB85-46A3-AC54-A44D48BDC344}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>_id</t>
   </si>
@@ -114,6 +114,18 @@
   </si>
   <si>
     <t>지하감옥으로 향하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스승과 대화하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스승과 대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_continue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="A1:O10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -509,12 +521,13 @@
     <col min="6" max="6" width="7.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.125" customWidth="1"/>
-    <col min="14" max="14" width="35" customWidth="1"/>
-    <col min="15" max="15" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="11.375" customWidth="1"/>
+    <col min="14" max="14" width="25.125" customWidth="1"/>
+    <col min="15" max="15" width="35" customWidth="1"/>
+    <col min="16" max="16" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -540,36 +553,39 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2000</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -586,25 +602,25 @@
       <c r="H2">
         <v>3000</v>
       </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2001</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E3">
-        <v>500000</v>
+        <v>2000</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -615,25 +631,28 @@
       <c r="H3">
         <v>3000</v>
       </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2002</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>500001</v>
+        <v>500000</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -644,54 +663,60 @@
       <c r="H4">
         <v>3000</v>
       </c>
-      <c r="O4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3004</v>
+        <v>2003</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5">
-        <v>3004</v>
+        <v>3000</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>10000</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>3000</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2004</v>
+        <v>3000</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>3001</v>
+        <v>500000</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -702,25 +727,28 @@
       <c r="H6">
         <v>10000</v>
       </c>
-      <c r="O6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E7">
-        <v>500000</v>
+        <v>4000</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -731,16 +759,19 @@
       <c r="H7">
         <v>10000</v>
       </c>
-      <c r="O7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>3001</v>
+        <v>2005</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -760,16 +791,19 @@
       <c r="H8">
         <v>10000</v>
       </c>
-      <c r="O8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>3003</v>
+        <v>2006</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -789,16 +823,19 @@
       <c r="H9">
         <v>10000</v>
       </c>
-      <c r="O9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>3004</v>
+        <v>2007</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -817,6 +854,41 @@
       </c>
       <c r="H10">
         <v>10000</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2008</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>500000</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>300</v>
+      </c>
+      <c r="H11">
+        <v>10000</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RawData/QuestDataSheet.xlsx
+++ b/Assets/RawData/QuestDataSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spike\Downloads\GemChronicle\Assets\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF291BD-EB85-46A3-AC54-A44D48BDC344}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5ED4F99-DDE2-4B25-84B6-C5283871D0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13920" yWindow="3435" windowWidth="18945" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -508,7 +508,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -632,7 +632,7 @@
         <v>3000</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
         <v>1</v>

--- a/Assets/RawData/QuestDataSheet.xlsx
+++ b/Assets/RawData/QuestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5ED4F99-DDE2-4B25-84B6-C5283871D0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574571B2-CF47-4D5C-A2CD-9D3CAC5EBA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13920" yWindow="3435" windowWidth="18945" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19455" yWindow="3165" windowWidth="18945" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>_id</t>
   </si>
@@ -126,6 +126,10 @@
   </si>
   <si>
     <t>_continue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_finish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -521,13 +525,15 @@
     <col min="6" max="6" width="7.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" customWidth="1"/>
-    <col min="14" max="14" width="25.125" customWidth="1"/>
-    <col min="15" max="15" width="35" customWidth="1"/>
-    <col min="16" max="16" width="16.5" customWidth="1"/>
+    <col min="9" max="10" width="11.375" customWidth="1"/>
+    <col min="12" max="12" width="14.375" customWidth="1"/>
+    <col min="13" max="13" width="12.5" customWidth="1"/>
+    <col min="15" max="15" width="12.625" customWidth="1"/>
+    <col min="16" max="16" width="19.625" customWidth="1"/>
+    <col min="17" max="17" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,28 +562,31 @@
         <v>30</v>
       </c>
       <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -605,8 +614,14 @@
       <c r="I2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -634,11 +649,17 @@
       <c r="I3" t="b">
         <v>1</v>
       </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -666,11 +687,17 @@
       <c r="I4" t="b">
         <v>1</v>
       </c>
-      <c r="P4">
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+      <c r="Q4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -698,11 +725,17 @@
       <c r="I5" t="b">
         <v>1</v>
       </c>
-      <c r="P5">
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+      <c r="Q5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3000</v>
       </c>
@@ -728,13 +761,19 @@
         <v>10000</v>
       </c>
       <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+      <c r="Q6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2004</v>
       </c>
@@ -748,7 +787,7 @@
         <v>14</v>
       </c>
       <c r="E7">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -760,13 +799,19 @@
         <v>10000</v>
       </c>
       <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>100</v>
+      </c>
+      <c r="Q7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2005</v>
       </c>
@@ -794,11 +839,17 @@
       <c r="I8" t="b">
         <v>1</v>
       </c>
-      <c r="P8">
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>100</v>
+      </c>
+      <c r="Q8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2006</v>
       </c>
@@ -826,11 +877,17 @@
       <c r="I9" t="b">
         <v>1</v>
       </c>
-      <c r="P9">
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>100</v>
+      </c>
+      <c r="Q9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2007</v>
       </c>
@@ -858,11 +915,17 @@
       <c r="I10" t="b">
         <v>1</v>
       </c>
-      <c r="P10">
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="Q10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2008</v>
       </c>
@@ -889,6 +952,12 @@
       </c>
       <c r="I11" t="b">
         <v>1</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RawData/QuestDataSheet.xlsx
+++ b/Assets/RawData/QuestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574571B2-CF47-4D5C-A2CD-9D3CAC5EBA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BE4CE5-B1FD-424D-81DC-7A4859CDD047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19455" yWindow="3165" windowWidth="18945" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="1905" windowWidth="21615" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>_id</t>
   </si>
@@ -72,27 +72,12 @@
     <t>TalkNpc</t>
   </si>
   <si>
-    <t>조작법 배우기</t>
-  </si>
-  <si>
     <t>중간 보스 처치</t>
   </si>
   <si>
     <t>KillBoss</t>
   </si>
   <si>
-    <t>젬 모아오기</t>
-  </si>
-  <si>
-    <t>스킬 3개 해금</t>
-  </si>
-  <si>
-    <t>무기 획득</t>
-  </si>
-  <si>
-    <t>NPC들과 친해지기(NPC들과 대화하기)</t>
-  </si>
-  <si>
     <t>_unlockpotalindex</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,23 +98,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>스승과 대화하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스승과 대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_continue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스승에게 돌아가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스승과 대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>지하감옥으로 향하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스승과 대화하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스승과 대화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_continue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_finish</t>
+    <t>지하감옥으로 향하자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지하감옥속 몬스터 처치하기1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지하감옥 몬스터 처치1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지하감옥속 몬스터 처치하기2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지하감옥 몬스터 처치2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕을 해치워라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕 해치우기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KillBoss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -559,10 +584,10 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -583,7 +608,7 @@
         <v>13</v>
       </c>
       <c r="Q1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -591,10 +616,10 @@
         <v>2000</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -632,10 +657,10 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3">
-        <v>2000</v>
+        <v>500000</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -664,16 +689,16 @@
         <v>2002</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>500000</v>
+        <v>3000</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -702,25 +727,25 @@
         <v>2003</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H5">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -737,19 +762,19 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6">
-        <v>500000</v>
+        <v>2000</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -778,16 +803,16 @@
         <v>2004</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -799,7 +824,7 @@
         <v>10000</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
@@ -816,13 +841,13 @@
         <v>2005</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
         <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
       </c>
       <c r="E8">
         <v>500000</v>
@@ -854,13 +879,13 @@
         <v>2006</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
         <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
       </c>
       <c r="E9">
         <v>500000</v>
@@ -892,13 +917,13 @@
         <v>2007</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E10">
         <v>500000</v>
@@ -916,48 +941,13 @@
         <v>1</v>
       </c>
       <c r="J10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>100</v>
       </c>
       <c r="Q10">
         <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>2008</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11">
-        <v>500000</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>300</v>
-      </c>
-      <c r="H11">
-        <v>10000</v>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RawData/QuestDataSheet.xlsx
+++ b/Assets/RawData/QuestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BE4CE5-B1FD-424D-81DC-7A4859CDD047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE756FA8-3755-4B4C-B97E-51944F24E82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1905" windowWidth="21615" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8715" yWindow="3435" windowWidth="21615" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>_id</t>
   </si>
@@ -155,6 +155,14 @@
   </si>
   <si>
     <t>KillBoss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="K3" sqref="K3:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -642,6 +650,9 @@
       <c r="J2" t="b">
         <v>0</v>
       </c>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
       <c r="L2">
         <v>100</v>
       </c>
@@ -677,6 +688,9 @@
       <c r="J3" t="b">
         <v>0</v>
       </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
       <c r="L3">
         <v>100</v>
       </c>
@@ -715,6 +729,9 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
       <c r="L4">
         <v>100</v>
       </c>
@@ -753,6 +770,9 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
       <c r="L5">
         <v>100</v>
       </c>
@@ -762,7 +782,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>7000</v>
+        <v>2004</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -791,6 +811,9 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
       <c r="L6">
         <v>100</v>
       </c>
@@ -800,7 +823,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
@@ -829,6 +852,9 @@
       <c r="J7" t="b">
         <v>0</v>
       </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
       <c r="L7">
         <v>100</v>
       </c>
@@ -838,7 +864,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -867,6 +893,9 @@
       <c r="J8" t="b">
         <v>0</v>
       </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
       <c r="L8">
         <v>100</v>
       </c>
@@ -876,7 +905,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
@@ -905,6 +934,9 @@
       <c r="J9" t="b">
         <v>0</v>
       </c>
+      <c r="K9" t="s">
+        <v>38</v>
+      </c>
       <c r="L9">
         <v>100</v>
       </c>
@@ -914,7 +946,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -943,11 +975,24 @@
       <c r="J10" t="b">
         <v>1</v>
       </c>
+      <c r="K10" t="s">
+        <v>38</v>
+      </c>
       <c r="L10">
         <v>100</v>
       </c>
       <c r="Q10">
         <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>7000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RawData/QuestDataSheet.xlsx
+++ b/Assets/RawData/QuestDataSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spike\Downloads\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE756FA8-3755-4B4C-B97E-51944F24E82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0896D9E5-1B9D-4393-8862-3F32D8835C92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8715" yWindow="3435" windowWidth="21615" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>_id</t>
   </si>
@@ -163,6 +163,18 @@
   </si>
   <si>
     <t>Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KillBoss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K10"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -995,6 +1007,44 @@
         <v>7000</v>
       </c>
     </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>500000</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/RawData/QuestDataSheet.xlsx
+++ b/Assets/RawData/QuestDataSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spike\Downloads\GemChronicle\Assets\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0896D9E5-1B9D-4393-8862-3F32D8835C92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F394EE-3F6F-471B-8019-E5F47BF6DA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8715" yWindow="3435" windowWidth="21615" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75" yWindow="2895" windowWidth="21615" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>_id</t>
   </si>
@@ -175,6 +175,10 @@
   </si>
   <si>
     <t>Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>learn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,7 +561,7 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -844,7 +848,7 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E7">
         <v>4000</v>

--- a/Assets/RawData/QuestDataSheet.xlsx
+++ b/Assets/RawData/QuestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F394EE-3F6F-471B-8019-E5F47BF6DA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99A8551-6192-48F1-915F-1585B3BDCBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="2895" windowWidth="21615" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="3510" windowWidth="21615" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>_id</t>
   </si>
@@ -114,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스승에게 돌아가기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스승과 대화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,6 +175,14 @@
   </si>
   <si>
     <t>learn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스승에게 돌아가기1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스승에게 돌아가기2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -667,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L2">
         <v>100</v>
@@ -699,13 +703,13 @@
         <v>3000</v>
       </c>
       <c r="I3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L3">
         <v>100</v>
@@ -719,25 +723,25 @@
         <v>2002</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H4">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -746,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L4">
         <v>100</v>
@@ -760,25 +764,25 @@
         <v>2003</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -787,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L5">
         <v>100</v>
@@ -801,16 +805,16 @@
         <v>2004</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -828,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L6">
         <v>100</v>
@@ -842,16 +846,16 @@
         <v>2005</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="E7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -869,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L7">
         <v>100</v>
@@ -883,16 +887,16 @@
         <v>2006</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E8">
-        <v>500000</v>
+        <v>4000</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -910,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L8">
         <v>100</v>
@@ -924,10 +928,10 @@
         <v>2007</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -951,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L9">
         <v>100</v>
@@ -965,13 +969,13 @@
         <v>2008</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>500000</v>
@@ -989,10 +993,10 @@
         <v>1</v>
       </c>
       <c r="J10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L10">
         <v>100</v>
@@ -1003,49 +1007,87 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>3000</v>
+        <v>2009</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <v>500000</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>300</v>
+      </c>
+      <c r="H11">
+        <v>10000</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11">
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>7000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>2</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
         <v>39</v>
       </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E14">
+        <v>500000</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
         <v>40</v>
       </c>
-      <c r="E13">
-        <v>500000</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>100</v>
-      </c>
-      <c r="H13">
-        <v>100</v>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" t="s">
-        <v>41</v>
-      </c>
-      <c r="L13">
+      <c r="L14">
         <v>100</v>
       </c>
     </row>

--- a/Assets/RawData/QuestDataSheet.xlsx
+++ b/Assets/RawData/QuestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99A8551-6192-48F1-915F-1585B3BDCBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0564F7AE-38F1-4A6F-AA6E-011E49532C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="3510" windowWidth="21615" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21615" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -178,11 +178,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>스승에게 돌아가기2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>스승에게 돌아가기1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스승에게 돌아가기2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,7 +565,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -703,7 +703,7 @@
         <v>3000</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
@@ -723,7 +723,7 @@
         <v>2002</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -846,7 +846,7 @@
         <v>2005</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>

--- a/Assets/RawData/QuestDataSheet.xlsx
+++ b/Assets/RawData/QuestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0564F7AE-38F1-4A6F-AA6E-011E49532C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC43553-D169-4809-837A-EE9E7F164219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21615" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16785" yWindow="1875" windowWidth="21615" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -565,7 +565,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/RawData/QuestDataSheet.xlsx
+++ b/Assets/RawData/QuestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC43553-D169-4809-837A-EE9E7F164219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA253D0-E2DC-4D01-8AB9-6946CD422C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16785" yWindow="1875" windowWidth="21615" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -565,7 +565,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1019,7 +1019,7 @@
         <v>35</v>
       </c>
       <c r="E11">
-        <v>500000</v>
+        <v>500003</v>
       </c>
       <c r="F11">
         <v>1</v>

--- a/Assets/RawData/QuestDataSheet.xlsx
+++ b/Assets/RawData/QuestDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA253D0-E2DC-4D01-8AB9-6946CD422C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BD8A7A-7FBE-404A-B8F4-7ABFAAC5FEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>_id</t>
   </si>
@@ -154,26 +154,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>몬스터 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KillBoss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Ice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 처치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KillBoss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>learn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,6 +175,10 @@
   </si>
   <si>
     <t>스승에게 돌아가기1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dark</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,7 +561,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -671,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L2">
         <v>100</v>
@@ -709,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L3">
         <v>100</v>
@@ -723,7 +719,7 @@
         <v>2002</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -750,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L4">
         <v>100</v>
@@ -791,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L5">
         <v>100</v>
@@ -832,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L6">
         <v>100</v>
@@ -846,7 +842,7 @@
         <v>2005</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
@@ -873,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L7">
         <v>100</v>
@@ -893,7 +889,7 @@
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E8">
         <v>4000</v>
@@ -914,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L8">
         <v>100</v>
@@ -955,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L9">
         <v>100</v>
@@ -996,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L10">
         <v>100</v>
@@ -1037,7 +1033,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L11">
         <v>100</v>
@@ -1058,13 +1054,13 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14">
         <v>500000</v>
@@ -1085,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L14">
         <v>100</v>

--- a/Assets/RawData/QuestDataSheet.xlsx
+++ b/Assets/RawData/QuestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BD8A7A-7FBE-404A-B8F4-7ABFAAC5FEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D95159-C0CC-4C88-87E3-FEA683F1B73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12585" yWindow="1905" windowWidth="21615" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>_id</t>
   </si>
@@ -72,9 +72,6 @@
     <t>TalkNpc</t>
   </si>
   <si>
-    <t>중간 보스 처치</t>
-  </si>
-  <si>
     <t>KillBoss</t>
   </si>
   <si>
@@ -86,10 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㅇㅇㅇ으로가자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>일기 읽어보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,11 +167,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스승에게 돌아가기1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임 3마리잡기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흉악한 몬스터를 처치하라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 처치1회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간의 마을로 가자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,7 +570,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -608,10 +617,10 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -632,7 +641,7 @@
         <v>13</v>
       </c>
       <c r="Q1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -640,10 +649,10 @@
         <v>2000</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -667,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L2">
         <v>100</v>
@@ -678,13 +687,13 @@
         <v>2001</v>
       </c>
       <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
       </c>
       <c r="E3">
         <v>500000</v>
@@ -705,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L3">
         <v>100</v>
@@ -719,16 +728,16 @@
         <v>2002</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>2000</v>
+        <v>500001</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -740,13 +749,13 @@
         <v>10000</v>
       </c>
       <c r="I4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L4">
         <v>100</v>
@@ -760,10 +769,10 @@
         <v>2003</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -787,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L5">
         <v>100</v>
@@ -801,10 +810,10 @@
         <v>2004</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -828,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L6">
         <v>100</v>
@@ -842,10 +851,10 @@
         <v>2005</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -869,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L7">
         <v>100</v>
@@ -883,13 +892,13 @@
         <v>2006</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>4000</v>
@@ -910,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L8">
         <v>100</v>
@@ -924,13 +933,13 @@
         <v>2007</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>500000</v>
@@ -951,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L9">
         <v>100</v>
@@ -965,13 +974,13 @@
         <v>2008</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>500000</v>
@@ -992,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L10">
         <v>100</v>
@@ -1006,13 +1015,13 @@
         <v>2009</v>
       </c>
       <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
         <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
       </c>
       <c r="E11">
         <v>500003</v>
@@ -1033,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L11">
         <v>100</v>
@@ -1054,13 +1063,13 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E14">
         <v>500000</v>
@@ -1081,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L14">
         <v>100</v>

--- a/Assets/RawData/QuestDataSheet.xlsx
+++ b/Assets/RawData/QuestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D95159-C0CC-4C88-87E3-FEA683F1B73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D666E7-9471-41C1-95E4-98639116FDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12585" yWindow="1905" windowWidth="21615" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -570,7 +570,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/RawData/QuestDataSheet.xlsx
+++ b/Assets/RawData/QuestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D666E7-9471-41C1-95E4-98639116FDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD370E4-6795-4BC8-A06A-4B65E0EA297B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12930" yWindow="2250" windowWidth="21615" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시간의 마을로 가자</t>
+    <t>디트리히 경를 찾아보자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,14 +570,14 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.25" bestFit="1" customWidth="1"/>

--- a/Assets/RawData/QuestDataSheet.xlsx
+++ b/Assets/RawData/QuestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD370E4-6795-4BC8-A06A-4B65E0EA297B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0A4BDD-412E-4B11-919B-D291847CC25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12930" yWindow="2250" windowWidth="21615" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="3480" windowWidth="21615" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>_id</t>
   </si>
@@ -116,22 +116,6 @@
   </si>
   <si>
     <t>지하감옥으로 향하자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지하감옥속 몬스터 처치하기1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지하감옥 몬스터 처치1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지하감옥속 몬스터 처치하기2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지하감옥 몬스터 처치2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -567,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -676,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L2">
         <v>100</v>
@@ -687,10 +671,10 @@
         <v>2001</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -714,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L3">
         <v>100</v>
@@ -728,10 +712,10 @@
         <v>2002</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -755,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L4">
         <v>100</v>
@@ -772,7 +756,7 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -796,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L5">
         <v>100</v>
@@ -837,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L6">
         <v>100</v>
@@ -851,7 +835,7 @@
         <v>2005</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -878,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L7">
         <v>100</v>
@@ -898,7 +882,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>4000</v>
@@ -919,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L8">
         <v>100</v>
@@ -939,10 +923,10 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E9">
-        <v>500000</v>
+        <v>500003</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -957,10 +941,10 @@
         <v>1</v>
       </c>
       <c r="J9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L9">
         <v>100</v>
@@ -971,40 +955,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2008</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <v>500000</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>300</v>
-      </c>
-      <c r="H10">
-        <v>10000</v>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="Q10">
         <v>8</v>
@@ -1012,87 +963,44 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2009</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11">
-        <v>500003</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>300</v>
-      </c>
-      <c r="H11">
-        <v>10000</v>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L11">
-        <v>100</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12">
         <v>500000</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>100</v>
-      </c>
-      <c r="H14">
-        <v>100</v>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12">
         <v>100</v>
       </c>
     </row>

--- a/Assets/RawData/QuestDataSheet.xlsx
+++ b/Assets/RawData/QuestDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0A4BDD-412E-4B11-919B-D291847CC25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FDA7A9-DEEB-4A67-B1D2-855B2A96145C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="3480" windowWidth="21615" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,7 +554,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -980,7 +980,7 @@
         <v>31</v>
       </c>
       <c r="E12">
-        <v>500000</v>
+        <v>500004</v>
       </c>
       <c r="F12">
         <v>1</v>

--- a/Assets/RawData/QuestDataSheet.xlsx
+++ b/Assets/RawData/QuestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FDA7A9-DEEB-4A67-B1D2-855B2A96145C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF83B81-3007-4CC7-8827-FE85FA26984B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="3480" windowWidth="21615" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9795" yWindow="2610" windowWidth="21615" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>_id</t>
   </si>
@@ -131,34 +131,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>KillBoss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>learn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스승에게 돌아가기2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>몬스터 처치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KillBoss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>learn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스승에게 돌아가기2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 처치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>슬라임 3마리잡기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,6 +168,14 @@
   </si>
   <si>
     <t>디트리히 경를 찾아보자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외눈 몬스터 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외눈몬스터 3마리잡기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,7 +558,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -660,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L2">
         <v>100</v>
@@ -671,10 +675,10 @@
         <v>2001</v>
       </c>
       <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
         <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>37</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -683,7 +687,7 @@
         <v>500000</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>100</v>
@@ -698,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L3">
         <v>100</v>
@@ -712,10 +716,10 @@
         <v>2002</v>
       </c>
       <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
         <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -739,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L4">
         <v>100</v>
@@ -756,7 +760,7 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -780,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L5">
         <v>100</v>
@@ -821,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L6">
         <v>100</v>
@@ -835,7 +839,7 @@
         <v>2005</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -862,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L7">
         <v>100</v>
@@ -882,7 +886,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>4000</v>
@@ -903,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L8">
         <v>100</v>
@@ -944,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L9">
         <v>100</v>
@@ -971,19 +975,19 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
       </c>
       <c r="E12">
         <v>500004</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G12">
         <v>100</v>
@@ -998,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L12">
         <v>100</v>

--- a/Assets/RawData/QuestDataSheet.xlsx
+++ b/Assets/RawData/QuestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF83B81-3007-4CC7-8827-FE85FA26984B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A05A428-F43B-4EF2-8830-BD19C5EAA6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9795" yWindow="2610" windowWidth="21615" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="2910" windowWidth="21615" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -558,7 +558,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -942,7 +942,7 @@
         <v>10000</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>

--- a/Assets/RawData/QuestDataSheet.xlsx
+++ b/Assets/RawData/QuestDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A05A428-F43B-4EF2-8830-BD19C5EAA6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0D44E0-613C-4D3E-9273-21C062DB9FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="2910" windowWidth="21615" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -558,7 +558,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -942,7 +942,7 @@
         <v>10000</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>

--- a/Assets/RawData/QuestDataSheet.xlsx
+++ b/Assets/RawData/QuestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0D44E0-613C-4D3E-9273-21C062DB9FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415D1201-618B-4A48-B648-B5D2882B635A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="2910" windowWidth="21615" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="2910" windowWidth="30195" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,131 +51,132 @@
     <t>_gold</t>
   </si>
   <si>
+    <t>_rewardCount_1</t>
+  </si>
+  <si>
+    <t>_reward_2</t>
+  </si>
+  <si>
+    <t>_rewardCount_2</t>
+  </si>
+  <si>
+    <t>_reward_3</t>
+  </si>
+  <si>
+    <t>_rewardCount_3</t>
+  </si>
+  <si>
+    <t>TalkNpc</t>
+  </si>
+  <si>
+    <t>KillBoss</t>
+  </si>
+  <si>
+    <t>_unlockpotalindex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스승의 친구 찾으로 가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일기 읽어보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일기를 찾아 읽어보자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스승과 대화하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스승과 대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_continue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스승과 대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지하감옥으로 향하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지하감옥으로 향하자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕을 해치워라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕 해치우기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KillBoss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KillBoss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>learn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스승에게 돌아가기2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임 3마리잡기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흉악한 몬스터를 처치하라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 처치1회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디트리히 경를 찾아보자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외눈 몬스터 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외눈몬스터 3마리잡기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>_reward_1</t>
-  </si>
-  <si>
-    <t>_rewardCount_1</t>
-  </si>
-  <si>
-    <t>_reward_2</t>
-  </si>
-  <si>
-    <t>_rewardCount_2</t>
-  </si>
-  <si>
-    <t>_reward_3</t>
-  </si>
-  <si>
-    <t>_rewardCount_3</t>
-  </si>
-  <si>
-    <t>TalkNpc</t>
-  </si>
-  <si>
-    <t>KillBoss</t>
-  </si>
-  <si>
-    <t>_unlockpotalindex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스승의 친구 찾으로 가기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일기 읽어보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일기를 찾아 읽어보자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스승과 대화하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스승과 대화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_continue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_finish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스승과 대화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지하감옥으로 향하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지하감옥으로 향하자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왕을 해치워라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왕 해치우기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KillBoss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KillBoss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>learn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스승에게 돌아가기2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 처치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬라임 3마리잡기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흉악한 몬스터를 처치하라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 처치1회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디트리히 경를 찾아보자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>외눈 몬스터 처치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>외눈몬스터 3마리잡기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,7 +559,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -572,6 +573,7 @@
     <col min="7" max="7" width="5.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.75" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="11.375" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
     <col min="12" max="12" width="14.375" customWidth="1"/>
     <col min="13" max="13" width="12.5" customWidth="1"/>
     <col min="15" max="15" width="12.625" customWidth="1"/>
@@ -605,31 +607,31 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
       <c r="Q1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -637,13 +639,13 @@
         <v>2000</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>2000</v>
@@ -664,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L2">
         <v>100</v>
@@ -675,13 +677,13 @@
         <v>2001</v>
       </c>
       <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>500000</v>
@@ -702,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L3">
         <v>100</v>
@@ -716,13 +718,13 @@
         <v>2002</v>
       </c>
       <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>500001</v>
@@ -743,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L4">
         <v>100</v>
@@ -757,13 +759,13 @@
         <v>2003</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>3000</v>
@@ -784,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L5">
         <v>100</v>
@@ -798,13 +800,13 @@
         <v>2004</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>7000</v>
@@ -825,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L6">
         <v>100</v>
@@ -839,13 +841,13 @@
         <v>2005</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>2000</v>
@@ -866,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L7">
         <v>100</v>
@@ -880,13 +882,13 @@
         <v>2006</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>4000</v>
@@ -907,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L8">
         <v>100</v>
@@ -921,13 +923,13 @@
         <v>2007</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
       </c>
       <c r="E9">
         <v>500003</v>
@@ -948,7 +950,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L9">
         <v>100</v>
@@ -975,13 +977,13 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>500004</v>
@@ -1002,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L12">
         <v>100</v>

--- a/Assets/RawData/QuestDataSheet.xlsx
+++ b/Assets/RawData/QuestDataSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SpartaCamp\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0D44E0-613C-4D3E-9273-21C062DB9FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A2187A-823D-4B44-B166-11B746ADCF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="2910" windowWidth="21615" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="285" yWindow="675" windowWidth="16545" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>_id</t>
   </si>
@@ -135,19 +135,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>learn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>스승에게 돌아가기2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dark</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -558,7 +550,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -663,8 +655,8 @@
       <c r="J2" t="b">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
-        <v>34</v>
+      <c r="K2">
+        <v>3</v>
       </c>
       <c r="L2">
         <v>100</v>
@@ -675,10 +667,10 @@
         <v>2001</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -701,8 +693,8 @@
       <c r="J3" t="b">
         <v>0</v>
       </c>
-      <c r="K3" t="s">
-        <v>34</v>
+      <c r="K3">
+        <v>3</v>
       </c>
       <c r="L3">
         <v>100</v>
@@ -716,10 +708,10 @@
         <v>2002</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -742,8 +734,8 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
-      <c r="K4" t="s">
-        <v>34</v>
+      <c r="K4">
+        <v>3</v>
       </c>
       <c r="L4">
         <v>100</v>
@@ -760,7 +752,7 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -783,8 +775,8 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
-      <c r="K5" t="s">
-        <v>34</v>
+      <c r="K5">
+        <v>3</v>
       </c>
       <c r="L5">
         <v>100</v>
@@ -824,8 +816,8 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
-      <c r="K6" t="s">
-        <v>34</v>
+      <c r="K6">
+        <v>3</v>
       </c>
       <c r="L6">
         <v>100</v>
@@ -839,7 +831,7 @@
         <v>2005</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -865,8 +857,8 @@
       <c r="J7" t="b">
         <v>0</v>
       </c>
-      <c r="K7" t="s">
-        <v>34</v>
+      <c r="K7">
+        <v>3</v>
       </c>
       <c r="L7">
         <v>100</v>
@@ -886,7 +878,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>4000</v>
@@ -906,8 +898,8 @@
       <c r="J8" t="b">
         <v>0</v>
       </c>
-      <c r="K8" t="s">
-        <v>34</v>
+      <c r="K8">
+        <v>3</v>
       </c>
       <c r="L8">
         <v>100</v>
@@ -947,8 +939,8 @@
       <c r="J9" t="b">
         <v>1</v>
       </c>
-      <c r="K9" t="s">
-        <v>34</v>
+      <c r="K9">
+        <v>3</v>
       </c>
       <c r="L9">
         <v>100</v>
@@ -975,10 +967,10 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
@@ -1001,8 +993,8 @@
       <c r="J12" t="b">
         <v>0</v>
       </c>
-      <c r="K12" t="s">
-        <v>31</v>
+      <c r="K12">
+        <v>1</v>
       </c>
       <c r="L12">
         <v>100</v>

--- a/Assets/RawData/QuestDataSheet.xlsx
+++ b/Assets/RawData/QuestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415D1201-618B-4A48-B648-B5D2882B635A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9618FF-C3F8-4913-9DAE-D9ECCADAEE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="2910" windowWidth="30195" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -559,7 +559,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -654,10 +654,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="H2">
-        <v>3000</v>
+        <v>50</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>3</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H3">
-        <v>3000</v>
+        <v>150</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -733,10 +733,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="H4">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>100</v>
       </c>
       <c r="H5">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -815,10 +815,10 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="H6">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
@@ -856,10 +856,10 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="H7">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -897,10 +897,10 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="H8">
-        <v>10000</v>
+        <v>500</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
@@ -992,7 +992,7 @@
         <v>3</v>
       </c>
       <c r="G12">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H12">
         <v>100</v>
